--- a/Documents/Deliverable_5/CSwap_Deliverable_5_SprintBacklog.xlsx
+++ b/Documents/Deliverable_5/CSwap_Deliverable_5_SprintBacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landonthibodeau/git/COS420_Project/Documents/Deliverable_5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ced1\Documents\GitHub\COS420_Project\Documents\Deliverable_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46952282-295E-0C43-9AAD-BD4909DB9026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4D1B2-0A88-4441-840A-A6FFE896E242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14280" windowWidth="41120" windowHeight="25700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>As an authorized user I want to list furniture so that I can sell firniture I no longer need</t>
+  </si>
+  <si>
+    <t>Post Listing</t>
+  </si>
+  <si>
+    <t>Message User</t>
+  </si>
+  <si>
+    <t>Remove Listing</t>
   </si>
 </sst>
 </file>
@@ -1572,20 +1581,20 @@
       <selection activeCell="E6" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="81.625" customWidth="1"/>
+    <col min="3" max="3" width="35.875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.125" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
     <col min="9" max="9" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1643,7 +1652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1701,7 +1710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1730,7 +1739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1776,20 +1785,20 @@
       <selection activeCell="A6" sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="3" max="3" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="21.875" customWidth="1"/>
+    <col min="9" max="9" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1818,7 +1827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>0</v>
       </c>
@@ -1847,7 +1856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1905,7 +1914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1934,7 +1943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1980,17 +1989,17 @@
       <selection activeCell="E6" sqref="A5:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="84.625" customWidth="1"/>
     <col min="3" max="3" width="38.5" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="26" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="26" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>0</v>
       </c>
@@ -2024,7 +2033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -2041,7 +2050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -2058,7 +2067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>3</v>
       </c>
@@ -2075,7 +2084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -2106,18 +2115,18 @@
       <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="70" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" customWidth="1"/>
+    <col min="5" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="43.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>5</v>
       </c>
@@ -2175,7 +2184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>6</v>
       </c>
@@ -2204,7 +2213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
     </row>
   </sheetData>
@@ -2219,24 +2228,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB27410-4250-4BAA-A4F1-455DDDF71F68}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="168" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="168" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -2265,7 +2274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>5</v>
       </c>
@@ -2294,7 +2303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>7</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>9</v>
       </c>
@@ -2352,7 +2361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>10</v>
       </c>
@@ -2381,7 +2390,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>12</v>
       </c>
@@ -2422,24 +2431,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D5D1F9-53DC-D94D-8761-6016B9CB4A26}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -2468,14 +2477,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>5</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="D2" s="37">
         <v>5</v>
       </c>
@@ -2485,18 +2496,26 @@
       <c r="F2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2" s="37">
+        <v>2</v>
+      </c>
+      <c r="H2" s="37">
+        <v>2</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>7</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" s="37">
         <v>9</v>
       </c>
@@ -2506,18 +2525,26 @@
       <c r="F3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="37">
+        <v>1</v>
+      </c>
+      <c r="H3" s="37">
+        <v>1</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>9</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="36" t="s">
+        <v>54</v>
+      </c>
       <c r="D4" s="37">
         <v>4</v>
       </c>
@@ -2527,47 +2554,73 @@
       <c r="F4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="37">
+        <v>1</v>
+      </c>
+      <c r="H4" s="37">
+        <v>1</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>10</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="D5" s="37">
         <v>5</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F5" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37">
+        <v>1</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>12</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="D6" s="38">
         <v>6</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="40"/>
+      <c r="F6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="38">
+        <v>1</v>
+      </c>
+      <c r="H6" s="38">
+        <v>1</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
